--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T12:26:15+00:00</t>
+    <t>2024-07-22T12:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T12:50:44+00:00</t>
+    <t>2024-07-22T13:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T13:02:51+00:00</t>
+    <t>2024-07-22T14:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-22T14:37:38+00:00</t>
+    <t>2024-08-29T16:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-29T16:05:10+00:00</t>
+    <t>2024-08-30T08:51:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-30T08:51:03+00:00</t>
+    <t>2024-09-18T14:38:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1280,7 +1280,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:38:31+00:00</t>
+    <t>2024-09-18T14:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:39:12+00:00</t>
+    <t>2024-09-18T14:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:39:51+00:00</t>
+    <t>2024-09-18T14:41:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T14:41:10+00:00</t>
+    <t>2024-09-18T15:26:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:16+00:00</t>
+    <t>2024-09-18T15:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:41+00:00</t>
+    <t>2024-09-18T15:26:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:26:56+00:00</t>
+    <t>2024-09-19T10:05:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T10:05:54+00:00</t>
+    <t>2024-09-19T10:11:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T10:11:41+00:00</t>
+    <t>2024-09-19T12:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
+++ b/nr-add-sf/ig/StructureDefinition-cdl-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-19T12:57:53+00:00</t>
+    <t>2024-09-19T13:35:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
